--- a/xlsx/country_comparison/field_keyword_positive.xlsx
+++ b/xlsx/country_comparison/field_keyword_positive.xlsx
@@ -74,10 +74,10 @@
     <t xml:space="preserve">Nothing; don't know; empty</t>
   </si>
   <si>
+    <t xml:space="preserve">Economy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Government; president</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Economy</t>
   </si>
   <si>
     <t xml:space="preserve">Inflation; cost of living</t>
@@ -610,10 +610,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.10244497299511</v>
+        <v>0.102522481676616</v>
       </c>
       <c r="C3" t="n">
-        <v>0.126725417109624</v>
+        <v>0.126903713743287</v>
       </c>
       <c r="D3" t="n">
         <v>0.101500215876694</v>
@@ -625,7 +625,7 @@
         <v>0.14622572265218</v>
       </c>
       <c r="G3" t="n">
-        <v>0.121570355339484</v>
+        <v>0.123299614530166</v>
       </c>
       <c r="H3" t="n">
         <v>0.159479355203936</v>
@@ -651,13 +651,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0925144610254368</v>
+        <v>0.0926148225458337</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0904854743970051</v>
+        <v>0.0907163404224399</v>
       </c>
       <c r="D4" t="n">
-        <v>0.105582554148362</v>
+        <v>0.106882912115324</v>
       </c>
       <c r="E4" t="n">
         <v>0.0947465259960133</v>
@@ -669,7 +669,7 @@
         <v>0.110593408120899</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0788491814450573</v>
+        <v>0.0788491814450574</v>
       </c>
       <c r="I4" t="n">
         <v>0.0959198410759693</v>
@@ -678,7 +678,7 @@
         <v>0.0600154515657946</v>
       </c>
       <c r="K4" t="n">
-        <v>0.083766464957221</v>
+        <v>0.0837664649572209</v>
       </c>
       <c r="L4" t="n">
         <v>0.0602178270789178</v>
@@ -692,7 +692,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0719215881462026</v>
+        <v>0.0719953021996957</v>
       </c>
       <c r="C5" t="n">
         <v>0.0651884757861758</v>
@@ -719,7 +719,7 @@
         <v>0.0428373737667234</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0726340153568815</v>
+        <v>0.073122986528768</v>
       </c>
       <c r="L5" t="n">
         <v>0.102037616300348</v>
@@ -830,13 +830,13 @@
         <v>0.029744754106229</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0663865396156051</v>
+        <v>0.0663865396156052</v>
       </c>
       <c r="H8" t="n">
         <v>0.0335897645052565</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0279930616552986</v>
+        <v>0.0279930616552985</v>
       </c>
       <c r="J8" t="n">
         <v>0.0247185603776682</v>
@@ -856,40 +856,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0465217339438901</v>
+        <v>0.0476724774114825</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0285615312623572</v>
+        <v>0.0387734005589055</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0320049726035638</v>
+        <v>0.011474957650423</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0241596296022602</v>
+        <v>0.0437714005759224</v>
       </c>
       <c r="F9" t="n">
-        <v>0.019577662110769</v>
+        <v>0.0626502583920119</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0180001922636902</v>
+        <v>0.0110333227815035</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0270399273282725</v>
+        <v>0.0514157193779358</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0475792780892838</v>
+        <v>0.0457402413085588</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0189273882550392</v>
+        <v>0.0309094204739583</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0386062974652222</v>
+        <v>0.0350799700385311</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000862233596311687</v>
+        <v>0.0199711849845625</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0741900880637061</v>
+        <v>0.0652625479002723</v>
       </c>
     </row>
     <row r="10">
@@ -897,40 +897,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.046499817907133</v>
+        <v>0.0465217339438901</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0379040467198535</v>
+        <v>0.0285615312623572</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0100695655158699</v>
+        <v>0.0320049726035639</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0437714005759224</v>
+        <v>0.0241596296022602</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0626502583920119</v>
+        <v>0.019577662110769</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0110333227815035</v>
+        <v>0.0180001922636902</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0514157193779358</v>
+        <v>0.0270399273282725</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0424714968643609</v>
+        <v>0.0475792780892838</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02912794054806</v>
+        <v>0.0189273882550392</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0325952451547009</v>
+        <v>0.0386062974652222</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01756723835792</v>
+        <v>0.000862233596311687</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0643718639724507</v>
+        <v>0.0741900880637061</v>
       </c>
     </row>
     <row r="11">
@@ -968,7 +968,7 @@
         <v>0.0234509266720625</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00642657788541433</v>
+        <v>0.00642657788541434</v>
       </c>
       <c r="M11" t="n">
         <v>0.0611888254090724</v>
@@ -979,7 +979,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0423153118436871</v>
+        <v>0.0423890258971802</v>
       </c>
       <c r="C12" t="n">
         <v>0.050449008233722</v>
@@ -1003,10 +1003,10 @@
         <v>0.0413631073311336</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0435924668129857</v>
+        <v>0.0435924668129858</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0299446570680055</v>
+        <v>0.0304336282398919</v>
       </c>
       <c r="L12" t="n">
         <v>0.0777988628197214</v>
@@ -1023,7 +1023,7 @@
         <v>0.0399765486156195</v>
       </c>
       <c r="C13" t="n">
-        <v>0.060373951121842</v>
+        <v>0.0603739511218419</v>
       </c>
       <c r="D13" t="n">
         <v>0.0538315457227264</v>
@@ -1047,7 +1047,7 @@
         <v>0.0378364707404913</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0312017223788672</v>
+        <v>0.0312017223788671</v>
       </c>
       <c r="L13" t="n">
         <v>0.0303083114789396</v>
@@ -1126,7 +1126,7 @@
         <v>0.0874578351856686</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0521707440391608</v>
+        <v>0.0521707440391609</v>
       </c>
       <c r="K15" t="n">
         <v>0.0065631833719026</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0609000822875076</v>
+        <v>0.0609000822875075</v>
       </c>
     </row>
     <row r="18">
@@ -1266,7 +1266,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0311490781893512</v>
+        <v>0.0312227922428442</v>
       </c>
       <c r="C19" t="n">
         <v>0.032541579467393</v>
@@ -1293,7 +1293,7 @@
         <v>0.0177829722154919</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0585588744636717</v>
+        <v>0.0590478456355581</v>
       </c>
       <c r="L19" t="n">
         <v>0.0039835499686648</v>
@@ -1307,10 +1307,10 @@
         <v>31</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0296911789823083</v>
+        <v>0.0307759160043767</v>
       </c>
       <c r="C20" t="n">
-        <v>0.018202022204048</v>
+        <v>0.0185734738812219</v>
       </c>
       <c r="D20" t="n">
         <v>0.00993376996509722</v>
@@ -1319,10 +1319,10 @@
         <v>0.0219503872991804</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0179954257801571</v>
+        <v>0.0190755572980811</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00975762464069743</v>
+        <v>0.0116551769289037</v>
       </c>
       <c r="H20" t="n">
         <v>0.0191475138528719</v>
@@ -1340,7 +1340,7 @@
         <v>0.0424901047589513</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0500449221143338</v>
+        <v>0.0524690307082365</v>
       </c>
     </row>
     <row r="21">
@@ -1372,7 +1372,7 @@
         <v>0.0373860187913463</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0199103360766923</v>
+        <v>0.0199103360766924</v>
       </c>
       <c r="K21" t="n">
         <v>0.0182722517383216</v>
@@ -1448,7 +1448,7 @@
         <v>0.00306882833325286</v>
       </c>
       <c r="H23" t="n">
-        <v>0.000876257471860367</v>
+        <v>0.000876257471860368</v>
       </c>
       <c r="I23" t="n">
         <v>0.0136748148581175</v>
@@ -1562,7 +1562,7 @@
         <v>0.0155199836221727</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0397592686116469</v>
+        <v>0.0397592686116468</v>
       </c>
       <c r="F26" t="n">
         <v>0.0156714444612051</v>
@@ -2004,7 +2004,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00498480491770562</v>
+        <v>0.00498480491770563</v>
       </c>
       <c r="C37" t="n">
         <v>0.00697615838359911</v>
@@ -2022,7 +2022,7 @@
         <v>0.0110678390129619</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00313592840300367</v>
+        <v>0.00313592840300368</v>
       </c>
       <c r="I37" t="n">
         <v>0.00328122692965389</v>
@@ -2054,7 +2054,7 @@
         <v>0.0013834614189468</v>
       </c>
       <c r="E38" t="n">
-        <v>0.000733032358965377</v>
+        <v>0.000733032358965378</v>
       </c>
       <c r="F38" t="n">
         <v>0.000859865887975415</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.00852036196172564</v>
+        <v>0.00852036196172563</v>
       </c>
     </row>
     <row r="43">

--- a/xlsx/country_comparison/field_keyword_positive.xlsx
+++ b/xlsx/country_comparison/field_keyword_positive.xlsx
@@ -669,7 +669,7 @@
         <v>0.110593408120899</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0788491814450574</v>
+        <v>0.0788491814450573</v>
       </c>
       <c r="I4" t="n">
         <v>0.0959198410759693</v>
@@ -678,7 +678,7 @@
         <v>0.0600154515657946</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0837664649572209</v>
+        <v>0.083766464957221</v>
       </c>
       <c r="L4" t="n">
         <v>0.0602178270789178</v>
@@ -789,7 +789,7 @@
         <v>0.0822118045049334</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0399942430095793</v>
+        <v>0.0399942430095792</v>
       </c>
       <c r="H7" t="n">
         <v>0.0679040031831562</v>
@@ -830,7 +830,7 @@
         <v>0.029744754106229</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0663865396156052</v>
+        <v>0.0663865396156051</v>
       </c>
       <c r="H8" t="n">
         <v>0.0335897645052565</v>
@@ -868,10 +868,10 @@
         <v>0.0437714005759224</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0626502583920119</v>
+        <v>0.0626502583920118</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0110333227815035</v>
+        <v>0.0110333227815034</v>
       </c>
       <c r="H9" t="n">
         <v>0.0514157193779358</v>
@@ -903,7 +903,7 @@
         <v>0.0285615312623572</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0320049726035639</v>
+        <v>0.0320049726035638</v>
       </c>
       <c r="E10" t="n">
         <v>0.0241596296022602</v>
@@ -968,7 +968,7 @@
         <v>0.0234509266720625</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00642657788541434</v>
+        <v>0.00642657788541433</v>
       </c>
       <c r="M11" t="n">
         <v>0.0611888254090724</v>
@@ -1023,7 +1023,7 @@
         <v>0.0399765486156195</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0603739511218419</v>
+        <v>0.060373951121842</v>
       </c>
       <c r="D13" t="n">
         <v>0.0538315457227264</v>
@@ -1047,7 +1047,7 @@
         <v>0.0378364707404913</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0312017223788671</v>
+        <v>0.0312017223788672</v>
       </c>
       <c r="L13" t="n">
         <v>0.0303083114789396</v>
@@ -1105,7 +1105,7 @@
         <v>0.0364006259494669</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0529305712288578</v>
+        <v>0.0529305712288579</v>
       </c>
       <c r="D15" t="n">
         <v>0.0357057845818555</v>
@@ -1126,7 +1126,7 @@
         <v>0.0874578351856686</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0521707440391609</v>
+        <v>0.0521707440391608</v>
       </c>
       <c r="K15" t="n">
         <v>0.0065631833719026</v>
@@ -1193,13 +1193,13 @@
         <v>0.0176020083086458</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0233644205389715</v>
+        <v>0.0233644205389716</v>
       </c>
       <c r="F17" t="n">
         <v>0.013900924047365</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00839006350112948</v>
+        <v>0.00839006350112947</v>
       </c>
       <c r="H17" t="n">
         <v>0.00949857755645115</v>
@@ -1228,7 +1228,7 @@
         <v>0.0334827768889531</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0437536500173379</v>
+        <v>0.043753650017338</v>
       </c>
       <c r="D18" t="n">
         <v>0.0235830505733939</v>
@@ -1237,7 +1237,7 @@
         <v>0.0548185750778946</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0698277052752729</v>
+        <v>0.0698277052752728</v>
       </c>
       <c r="G18" t="n">
         <v>0.0172512797273797</v>
@@ -1337,7 +1337,7 @@
         <v>0.00854166358754135</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0424901047589513</v>
+        <v>0.0424901047589512</v>
       </c>
       <c r="M20" t="n">
         <v>0.0524690307082365</v>
@@ -1372,7 +1372,7 @@
         <v>0.0373860187913463</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0199103360766924</v>
+        <v>0.0199103360766923</v>
       </c>
       <c r="K21" t="n">
         <v>0.0182722517383216</v>
@@ -1395,7 +1395,7 @@
         <v>0.0269735173134916</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0213216678839544</v>
+        <v>0.0213216678839543</v>
       </c>
       <c r="E22" t="n">
         <v>0.0154592879988818</v>
@@ -1489,10 +1489,10 @@
         <v>0.0272301739625841</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00702658128162782</v>
+        <v>0.00702658128162783</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0250004986359545</v>
+        <v>0.0250004986359544</v>
       </c>
       <c r="J24" t="n">
         <v>0.010571555963216</v>
@@ -1562,7 +1562,7 @@
         <v>0.0155199836221727</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0397592686116468</v>
+        <v>0.0397592686116469</v>
       </c>
       <c r="F26" t="n">
         <v>0.0156714444612051</v>
@@ -1644,7 +1644,7 @@
         <v>0.0225301695013904</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0231518048949187</v>
+        <v>0.0231518048949188</v>
       </c>
       <c r="F28" t="n">
         <v>0.01332380993786</v>
@@ -1826,7 +1826,7 @@
         <v>0.0105615806772351</v>
       </c>
       <c r="K32" t="n">
-        <v>0.00692383002911516</v>
+        <v>0.00692383002911517</v>
       </c>
       <c r="L32" t="n">
         <v>0.0107311831378077</v>
@@ -1966,7 +1966,7 @@
         <v>0.00605285535577756</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00823085631363606</v>
+        <v>0.00823085631363607</v>
       </c>
       <c r="D36" t="n">
         <v>0.00530150587701296</v>
@@ -2004,7 +2004,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00498480491770563</v>
+        <v>0.00498480491770562</v>
       </c>
       <c r="C37" t="n">
         <v>0.00697615838359911</v>
@@ -2022,7 +2022,7 @@
         <v>0.0110678390129619</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00313592840300368</v>
+        <v>0.00313592840300367</v>
       </c>
       <c r="I37" t="n">
         <v>0.00328122692965389</v>
@@ -2066,7 +2066,7 @@
         <v>0.00268541619832375</v>
       </c>
       <c r="I38" t="n">
-        <v>0.00333046224135116</v>
+        <v>0.00333046224135115</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.00852036196172563</v>
+        <v>0.00852036196172564</v>
       </c>
     </row>
     <row r="43">

--- a/xlsx/country_comparison/field_keyword_positive.xlsx
+++ b/xlsx/country_comparison/field_keyword_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
@@ -80,21 +83,27 @@
     <t xml:space="preserve">Government; president</t>
   </si>
   <si>
+    <t xml:space="preserve">International issues</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inflation; cost of living</t>
   </si>
   <si>
-    <t xml:space="preserve">International issues</t>
-  </si>
-  <si>
     <t xml:space="preserve">Poverty; inequality</t>
   </si>
   <si>
     <t xml:space="preserve">Tax system; welfare benefits; public services</t>
   </si>
   <si>
+    <t xml:space="preserve">Old age; retirement; ageing society</t>
+  </si>
+  <si>
     <t xml:space="preserve">Criticism of immigration; national preference</t>
   </si>
   <si>
+    <t xml:space="preserve">Housing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Security; violence; crime; judicial system</t>
   </si>
   <si>
@@ -104,42 +113,36 @@
     <t xml:space="preserve">Environment; climate change</t>
   </si>
   <si>
-    <t xml:space="preserve">Old age; retirement; ageing society</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
   </si>
   <si>
+    <t xml:space="preserve">Car</t>
+  </si>
+  <si>
     <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
   </si>
   <si>
-    <t xml:space="preserve">Housing</t>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happiness; peace of mind</t>
   </si>
   <si>
     <t xml:space="preserve">Trump</t>
   </si>
   <si>
-    <t xml:space="preserve">Car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Happiness; peace of mind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
     <t xml:space="preserve">Politics</t>
   </si>
   <si>
     <t xml:space="preserve">Relationships; love; emotions</t>
   </si>
   <si>
+    <t xml:space="preserve">Wage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stability</t>
   </si>
   <si>
-    <t xml:space="preserve">Wage</t>
-  </si>
-  <si>
     <t xml:space="preserve">Holiday; travel</t>
   </si>
   <si>
@@ -149,34 +152,34 @@
     <t xml:space="preserve">Tariffs</t>
   </si>
   <si>
+    <t xml:space="preserve">Youth</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corruption; criticism of the government</t>
   </si>
   <si>
     <t xml:space="preserve">Mental health</t>
   </si>
   <si>
-    <t xml:space="preserve">Youth</t>
-  </si>
-  <si>
     <t xml:space="preserve">Animal welfare</t>
   </si>
   <si>
     <t xml:space="preserve">Stock; investment</t>
   </si>
   <si>
+    <t xml:space="preserve">Sport</t>
+  </si>
+  <si>
     <t xml:space="preserve">Global poverty; hunger; global inequality</t>
   </si>
   <si>
-    <t xml:space="preserve">Sport</t>
+    <t xml:space="preserve">Millionaire; billionaire</t>
   </si>
   <si>
     <t xml:space="preserve">Religion; sin; God</t>
   </si>
   <si>
     <t xml:space="preserve">Abortion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millionaire; billionaire</t>
   </si>
   <si>
     <t xml:space="preserve">Palestine</t>
@@ -563,13 +566,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.191001826696918</v>
+        <v>0.182321037798967</v>
       </c>
       <c r="C2" t="n">
         <v>0.161772357883732</v>
@@ -596,21 +602,24 @@
         <v>0.151337475119412</v>
       </c>
       <c r="K2" t="n">
-        <v>0.205832291864807</v>
+        <v>0.205749694909397</v>
       </c>
       <c r="L2" t="n">
+        <v>0.128357235867269</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.160511571395735</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.221188870463737</v>
+      <c r="N2" t="n">
+        <v>0.22136380470097</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.102522481676616</v>
+        <v>0.100995060768002</v>
       </c>
       <c r="C3" t="n">
         <v>0.126903713743287</v>
@@ -637,21 +646,24 @@
         <v>0.103994548882937</v>
       </c>
       <c r="K3" t="n">
-        <v>0.043755762564489</v>
+        <v>0.0438097949544678</v>
       </c>
       <c r="L3" t="n">
+        <v>0.0918208304430512</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.0481397016758384</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.102761471260059</v>
+      <c r="N3" t="n">
+        <v>0.102648655642718</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0926148225458337</v>
+        <v>0.088154808321385</v>
       </c>
       <c r="C4" t="n">
         <v>0.0907163404224399</v>
@@ -678,21 +690,24 @@
         <v>0.0600154515657946</v>
       </c>
       <c r="K4" t="n">
-        <v>0.083766464957221</v>
+        <v>0.0838073240940032</v>
       </c>
       <c r="L4" t="n">
+        <v>0.0608786217043796</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.0602178270789178</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.101147499261693</v>
+      <c r="N4" t="n">
+        <v>0.101040837559806</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0719953021996957</v>
+        <v>0.0711807113712516</v>
       </c>
       <c r="C5" t="n">
         <v>0.0651884757861758</v>
@@ -704,7 +719,7 @@
         <v>0.042692829320797</v>
       </c>
       <c r="F5" t="n">
-        <v>0.068943987542847</v>
+        <v>0.0689439875428471</v>
       </c>
       <c r="G5" t="n">
         <v>0.0767926429993233</v>
@@ -719,21 +734,24 @@
         <v>0.0428373737667234</v>
       </c>
       <c r="K5" t="n">
-        <v>0.073122986528768</v>
+        <v>0.0731479352716921</v>
       </c>
       <c r="L5" t="n">
+        <v>0.0662071089146564</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.102037616300348</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.0766628969189353</v>
+      <c r="N5" t="n">
+        <v>0.0766206382747447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0652401488665648</v>
+        <v>0.060736531600857</v>
       </c>
       <c r="C6" t="n">
         <v>0.0942459172240121</v>
@@ -760,21 +778,24 @@
         <v>0.0856719423556321</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0374876519516756</v>
+        <v>0.0375112362668072</v>
       </c>
       <c r="L6" t="n">
+        <v>0.0330590623121272</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.0420394789499737</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.045168707317568</v>
+      <c r="N6" t="n">
+        <v>0.0452396364869285</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0556521348121941</v>
+        <v>0.0553504218200639</v>
       </c>
       <c r="C7" t="n">
         <v>0.0607223120240159</v>
@@ -789,7 +810,7 @@
         <v>0.0822118045049334</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0399942430095792</v>
+        <v>0.0399942430095793</v>
       </c>
       <c r="H7" t="n">
         <v>0.0679040031831562</v>
@@ -801,21 +822,24 @@
         <v>0.0316915930729731</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0426113108440731</v>
+        <v>0.0426050988618772</v>
       </c>
       <c r="L7" t="n">
+        <v>0.0534989239387084</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.101771032271278</v>
       </c>
-      <c r="M7" t="n">
-        <v>0.0509506085226378</v>
+      <c r="N7" t="n">
+        <v>0.050970650353524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0477259048171108</v>
+        <v>0.0469900026163117</v>
       </c>
       <c r="C8" t="n">
         <v>0.0409974052476144</v>
@@ -830,7 +854,7 @@
         <v>0.029744754106229</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0663865396156051</v>
+        <v>0.0663865396156052</v>
       </c>
       <c r="H8" t="n">
         <v>0.0335897645052565</v>
@@ -842,21 +866,24 @@
         <v>0.0247185603776682</v>
       </c>
       <c r="K8" t="n">
-        <v>0.134617466254815</v>
+        <v>0.134585103893787</v>
       </c>
       <c r="L8" t="n">
+        <v>0.0426251947414407</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.0358156854121428</v>
       </c>
-      <c r="M8" t="n">
-        <v>0.0220652650835128</v>
+      <c r="N8" t="n">
+        <v>0.0221130651051977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0476724774114825</v>
+        <v>0.0428925022529864</v>
       </c>
       <c r="C9" t="n">
         <v>0.0387734005589055</v>
@@ -868,10 +895,10 @@
         <v>0.0437714005759224</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0626502583920118</v>
+        <v>0.0626502583920119</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0110333227815034</v>
+        <v>0.0110333227815035</v>
       </c>
       <c r="H9" t="n">
         <v>0.0514157193779358</v>
@@ -883,21 +910,24 @@
         <v>0.0309094204739583</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0350799700385311</v>
+        <v>0.035094409747487</v>
       </c>
       <c r="L9" t="n">
+        <v>0.0134987979493771</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.0199711849845625</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.0652625479002723</v>
+      <c r="N9" t="n">
+        <v>0.0651946587957189</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0465217339438901</v>
+        <v>0.0403203062652297</v>
       </c>
       <c r="C10" t="n">
         <v>0.0285615312623572</v>
@@ -924,106 +954,115 @@
         <v>0.0189273882550392</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0386062974652222</v>
+        <v>0.0385965646907139</v>
       </c>
       <c r="L10" t="n">
+        <v>0.00223387876409278</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.000862233596311687</v>
       </c>
-      <c r="M10" t="n">
-        <v>0.0741900880637061</v>
+      <c r="N10" t="n">
+        <v>0.074073346356152</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0429062445703473</v>
+        <v>0.0389960678335084</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0364601289385647</v>
+        <v>0.050449008233722</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0150595822264171</v>
+        <v>0.0547130842188104</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0227496674399152</v>
+        <v>0.0590899980535088</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0489918617466034</v>
+        <v>0.0512751354655843</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0284025769810721</v>
+        <v>0.0539464981958894</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0286133153886044</v>
+        <v>0.0394128679957092</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0768024795846809</v>
+        <v>0.0413631073311336</v>
       </c>
       <c r="J11" t="n">
-        <v>0.018779014651579</v>
+        <v>0.0435924668129858</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0234509266720625</v>
+        <v>0.0304564891017079</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00642657788541433</v>
+        <v>0.017840134031664</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0611888254090724</v>
+        <v>0.0777988628197214</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0349429275482588</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0423890258971802</v>
+        <v>0.0384638187662071</v>
       </c>
       <c r="C12" t="n">
-        <v>0.050449008233722</v>
+        <v>0.0364601289385647</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0547130842188104</v>
+        <v>0.0150595822264171</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0590899980535088</v>
+        <v>0.0227496674399152</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0512751354655843</v>
+        <v>0.0489918617466034</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0539464981958894</v>
+        <v>0.0284025769810721</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0394128679957092</v>
+        <v>0.0286133153886044</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0413631073311336</v>
+        <v>0.0768024795846809</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0435924668129858</v>
+        <v>0.018779014651579</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0304336282398919</v>
+        <v>0.0234399934012472</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0777988628197214</v>
+        <v>0.0107231605115973</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0347918548465266</v>
+        <v>0.00642657788541434</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0613077559670346</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0399765486156195</v>
+        <v>0.0373562141560839</v>
       </c>
       <c r="C13" t="n">
-        <v>0.060373951121842</v>
+        <v>0.0603739511218419</v>
       </c>
       <c r="D13" t="n">
         <v>0.0538315457227264</v>
@@ -1047,21 +1086,24 @@
         <v>0.0378364707404913</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0312017223788672</v>
+        <v>0.0312099154110523</v>
       </c>
       <c r="L13" t="n">
+        <v>0.021268099021952</v>
+      </c>
+      <c r="M13" t="n">
         <v>0.0303083114789396</v>
       </c>
-      <c r="M13" t="n">
-        <v>0.0210228669546123</v>
+      <c r="N13" t="n">
+        <v>0.0210887233519309</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0388885008585323</v>
+        <v>0.0336191355177953</v>
       </c>
       <c r="C14" t="n">
         <v>0.0292223231542092</v>
@@ -1088,431 +1130,464 @@
         <v>0.0187933388549178</v>
       </c>
       <c r="K14" t="n">
-        <v>0.103942620695345</v>
+        <v>0.103938267948727</v>
       </c>
       <c r="L14" t="n">
+        <v>0.00138736039927219</v>
+      </c>
+      <c r="M14" t="n">
         <v>0.00208813427186945</v>
       </c>
-      <c r="M14" t="n">
-        <v>0.0274244762404715</v>
+      <c r="N14" t="n">
+        <v>0.0274075262990083</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0364006259494669</v>
+        <v>0.0332160574775112</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0529305712288579</v>
+        <v>0.032541579467393</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0357057845818555</v>
+        <v>0.0273958857117257</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0780398179127967</v>
+        <v>0.0684305271844509</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0274281677578105</v>
+        <v>0.0124141813050852</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0350434292800761</v>
+        <v>0.0153742552149</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0321540740533865</v>
+        <v>0.0186892581057893</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0874578351856686</v>
+        <v>0.0325524793108507</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0521707440391608</v>
+        <v>0.0177829722154919</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0065631833719026</v>
+        <v>0.0590920345710629</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00199639412499814</v>
+        <v>0.0455635490148159</v>
       </c>
       <c r="M15" t="n">
-        <v>0.032384488178167</v>
+        <v>0.0039835499686648</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0210925808322273</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0342322407856359</v>
+        <v>0.0319649704467399</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0281598134127114</v>
+        <v>0.0529305712288578</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0163917340461058</v>
+        <v>0.0357057845818555</v>
       </c>
       <c r="E16" t="n">
-        <v>0.020089009677194</v>
+        <v>0.0780398179127967</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0395814308851999</v>
+        <v>0.0274281677578105</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0129502889634224</v>
+        <v>0.0350434292800761</v>
       </c>
       <c r="H16" t="n">
-        <v>0.023924431046729</v>
+        <v>0.0321540740533865</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0531799879492298</v>
+        <v>0.0874578351856686</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0176989396518012</v>
+        <v>0.0521707440391609</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0217538686061405</v>
+        <v>0.00656675605998006</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0111451584411178</v>
+        <v>0.00476136709085499</v>
       </c>
       <c r="M16" t="n">
-        <v>0.048142987879757</v>
+        <v>0.00199639412499814</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0323753859474656</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0340152045106673</v>
+        <v>0.0304488376315802</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0157395055510232</v>
+        <v>0.0269735173134916</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0176020083086458</v>
+        <v>0.0213216678839544</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0233644205389716</v>
+        <v>0.0154592879988818</v>
       </c>
       <c r="F17" t="n">
-        <v>0.013900924047365</v>
+        <v>0.0229261585613421</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00839006350112947</v>
+        <v>0.0330329698045628</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00949857755645115</v>
+        <v>0.0560473240220591</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0149198636575293</v>
+        <v>0.0278306333783973</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0140747856649723</v>
+        <v>0.0144175784657228</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0263887720673798</v>
+        <v>0.0146534566511689</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.0592517001731302</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0609000822875075</v>
+        <v>0.0319695272437633</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0282176459782966</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0334827768889531</v>
+        <v>0.0302795812721631</v>
       </c>
       <c r="C18" t="n">
-        <v>0.043753650017338</v>
+        <v>0.0281598134127114</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0235830505733939</v>
+        <v>0.0163917340461058</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0548185750778946</v>
+        <v>0.020089009677194</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0698277052752728</v>
+        <v>0.0395814308851999</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0172512797273797</v>
+        <v>0.0129502889634224</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0355182686179697</v>
+        <v>0.023924431046729</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0469875691317198</v>
+        <v>0.0531799879492298</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0467077004351659</v>
+        <v>0.0176989396518012</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0141544743300113</v>
+        <v>0.0217650060909604</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0497244153114467</v>
+        <v>0.00586038734211524</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0279746291543814</v>
+        <v>0.0111451584411178</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0481378270190486</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0312227922428442</v>
+        <v>0.029472401622532</v>
       </c>
       <c r="C19" t="n">
-        <v>0.032541579467393</v>
+        <v>0.0157395055510232</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0273958857117257</v>
+        <v>0.0176020083086458</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0684305271844509</v>
+        <v>0.0233644205389716</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0124141813050852</v>
+        <v>0.013900924047365</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0153742552149</v>
+        <v>0.00839006350112947</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0186892581057893</v>
+        <v>0.00949857755645115</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0325524793108507</v>
+        <v>0.0149198636575293</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0177829722154919</v>
+        <v>0.0140747856649723</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0590478456355581</v>
+        <v>0.026397328866856</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0039835499686648</v>
+        <v>0.00140206063911074</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0211114561430301</v>
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0608546638483413</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0307759160043767</v>
+        <v>0.0290290271298219</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0185734738812219</v>
+        <v>0.0437536500173379</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00993376996509722</v>
+        <v>0.0235830505733939</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0219503872991804</v>
+        <v>0.0548185750778946</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0190755572980811</v>
+        <v>0.0698277052752728</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0116551769289037</v>
+        <v>0.0172512797273797</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0191475138528719</v>
+        <v>0.0355182686179697</v>
       </c>
       <c r="I20" t="n">
-        <v>0.026083694384323</v>
+        <v>0.0469875691317198</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0185893481653607</v>
+        <v>0.0467077004351659</v>
       </c>
       <c r="K20" t="n">
-        <v>0.00854166358754135</v>
+        <v>0.0141680897206946</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0424901047589512</v>
+        <v>0.0016522224901023</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0524690307082365</v>
+        <v>0.0497244153114467</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0279939370302207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0285256152410418</v>
+        <v>0.0273840558766951</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0235491585698141</v>
+        <v>0.0185734738812219</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0247295118635322</v>
+        <v>0.00993376996509722</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0199228701141335</v>
+        <v>0.0219503872991804</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0239889324483805</v>
+        <v>0.0190755572980811</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00842241494155756</v>
+        <v>0.0116551769289037</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0215439821623808</v>
+        <v>0.0191475138528719</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0373860187913463</v>
+        <v>0.026083694384323</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0199103360766923</v>
+        <v>0.0185893481653607</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0182722517383216</v>
+        <v>0.00855123830249976</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0270490585304728</v>
+        <v>0.00643806063116806</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0383946720550349</v>
+        <v>0.0424901047589513</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0524220495695358</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0257284486947377</v>
+        <v>0.0250026785729991</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0269735173134916</v>
+        <v>0.0164008037905089</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0213216678839543</v>
+        <v>0.0162329158929702</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0154592879988818</v>
+        <v>0.0160474800803187</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0229261585613421</v>
+        <v>0.00922390407701276</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0330329698045628</v>
+        <v>0.0272301739625841</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0560473240220591</v>
+        <v>0.00702658128162783</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0278306333783973</v>
+        <v>0.0250004986359545</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0144175784657228</v>
+        <v>0.010571555963216</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0146475486345751</v>
+        <v>0.0136235733102797</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0319695272437633</v>
+        <v>0.0247002293614422</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0281417278589565</v>
+        <v>0.0280783049771635</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0391259237250962</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0254748235998701</v>
+        <v>0.0247509642480483</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00961126540544619</v>
+        <v>0.0235491585698141</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0149985738479522</v>
+        <v>0.0247295118635322</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0114707836995252</v>
+        <v>0.0199228701141335</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00722338775958125</v>
+        <v>0.0239889324483805</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00306882833325286</v>
+        <v>0.00842241494155756</v>
       </c>
       <c r="H23" t="n">
-        <v>0.000876257471860368</v>
+        <v>0.0215439821623808</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0136748148581175</v>
+        <v>0.0373860187913463</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0140747856649723</v>
+        <v>0.0199103360766923</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0209606501115299</v>
+        <v>0.0182662703177434</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.00159299207370676</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0476197684586534</v>
+        <v>0.0270490585304728</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0383410720026572</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0250249853522507</v>
+        <v>0.023372049780552</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0164008037905089</v>
+        <v>0.0259202101884547</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0162329158929702</v>
+        <v>0.0155199836221727</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0160474800803187</v>
+        <v>0.0397592686116469</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00922390407701276</v>
+        <v>0.0156714444612051</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0272301739625841</v>
+        <v>0.011885073870826</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00702658128162783</v>
+        <v>0.0370870013795653</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0250004986359544</v>
+        <v>0.0274292760552015</v>
       </c>
       <c r="J24" t="n">
-        <v>0.010571555963216</v>
+        <v>0.0307147387329946</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0136245667026894</v>
+        <v>0.0243760493776303</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0280783049771635</v>
+        <v>0.0210962162032434</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0391111766321403</v>
+        <v>0.0373393099315168</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0198197117929051</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0243064389121357</v>
+        <v>0.0223801820434425</v>
       </c>
       <c r="C25" t="n">
         <v>0.0278669994830184</v>
@@ -1539,62 +1614,68 @@
         <v>0.0107545909645981</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00815155499969941</v>
+        <v>0.00815618955253707</v>
       </c>
       <c r="L25" t="n">
+        <v>0.0105472628002141</v>
+      </c>
+      <c r="M25" t="n">
         <v>0.0125275022226377</v>
       </c>
-      <c r="M25" t="n">
-        <v>0.0276779145361473</v>
+      <c r="N25" t="n">
+        <v>0.0276605926752763</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0237482420305551</v>
+        <v>0.0219291560180485</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0259202101884547</v>
+        <v>0.00961126540544619</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0155199836221727</v>
+        <v>0.0149985738479522</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0397592686116469</v>
+        <v>0.0114707836995252</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0156714444612051</v>
+        <v>0.00722338775958125</v>
       </c>
       <c r="G26" t="n">
-        <v>0.011885073870826</v>
+        <v>0.00306882833325286</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0370870013795653</v>
+        <v>0.000876257471860367</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0274292760552015</v>
+        <v>0.0136748148581175</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0307147387329946</v>
+        <v>0.0140747856649723</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0243648924273941</v>
+        <v>0.0209611471772189</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0373393099315168</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0198238373884035</v>
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0475907360468383</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0218285219389933</v>
+        <v>0.0195352836528638</v>
       </c>
       <c r="C27" t="n">
         <v>0.025280925573597</v>
@@ -1621,21 +1702,24 @@
         <v>0.0232117491953549</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0244924121604118</v>
+        <v>0.0244975839505814</v>
       </c>
       <c r="L27" t="n">
+        <v>0.00553231492305329</v>
+      </c>
+      <c r="M27" t="n">
         <v>0.00573833313680476</v>
       </c>
-      <c r="M27" t="n">
-        <v>0.0182557016999227</v>
+      <c r="N27" t="n">
+        <v>0.0182295128903723</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0194266743379861</v>
+        <v>0.0194397523322192</v>
       </c>
       <c r="C28" t="n">
         <v>0.018120854570026</v>
@@ -1644,7 +1728,7 @@
         <v>0.0225301695013904</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0231518048949188</v>
+        <v>0.0231518048949187</v>
       </c>
       <c r="F28" t="n">
         <v>0.01332380993786</v>
@@ -1662,103 +1746,112 @@
         <v>0.00674796494606546</v>
       </c>
       <c r="K28" t="n">
-        <v>0.00398273928943182</v>
+        <v>0.00398912595078207</v>
       </c>
       <c r="L28" t="n">
+        <v>0.0194287855799425</v>
+      </c>
+      <c r="M28" t="n">
         <v>0.0153588440444347</v>
       </c>
-      <c r="M28" t="n">
-        <v>0.0273896433273981</v>
+      <c r="N28" t="n">
+        <v>0.0273943271811495</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0167939581414817</v>
+        <v>0.0168386015095953</v>
       </c>
       <c r="C29" t="n">
-        <v>0.015018025225827</v>
+        <v>0.0181665252346861</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0089849745584481</v>
+        <v>0.0210869843923485</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0152847092334953</v>
+        <v>0.0173499957932761</v>
       </c>
       <c r="F29" t="n">
-        <v>0.017112383194254</v>
+        <v>0.0314483311145084</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0161713779453003</v>
+        <v>0.00946252545344026</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0245236101345121</v>
+        <v>0.022340211996424</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0113704034799408</v>
+        <v>0.00367575375201979</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0132457354685876</v>
+        <v>0.0358671127549847</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0244857335296688</v>
+        <v>0.0287752715441579</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0254216899328644</v>
+        <v>0.0284386186217532</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0150138886226584</v>
+        <v>0.00672238644766084</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.00656983186677258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0149734335389539</v>
+        <v>0.01668336754879</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0181665252346861</v>
+        <v>0.015018025225827</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0210869843923485</v>
+        <v>0.0089849745584481</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0173499957932761</v>
+        <v>0.0152847092334953</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0314483311145084</v>
+        <v>0.017112383194254</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00946252545344026</v>
+        <v>0.0161713779453003</v>
       </c>
       <c r="H30" t="n">
-        <v>0.022340211996424</v>
+        <v>0.0245236101345121</v>
       </c>
       <c r="I30" t="n">
-        <v>0.00367575375201979</v>
+        <v>0.0113704034799408</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0358671127549847</v>
+        <v>0.0132457354685876</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0288049769126327</v>
+        <v>0.0245000892694067</v>
       </c>
       <c r="L30" t="n">
-        <v>0.00672238644766084</v>
+        <v>0.0159712827263236</v>
       </c>
       <c r="M30" t="n">
-        <v>0.00658337100105561</v>
+        <v>0.0254216899328644</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.015029152115055</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0142580346651069</v>
+        <v>0.0151278512274999</v>
       </c>
       <c r="C31" t="n">
         <v>0.0138396679338058</v>
@@ -1785,21 +1878,24 @@
         <v>0.00806591408888334</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0119855003665337</v>
+        <v>0.0119806394668913</v>
       </c>
       <c r="L31" t="n">
+        <v>0.0205229529063182</v>
+      </c>
+      <c r="M31" t="n">
         <v>0.0202473052581676</v>
       </c>
-      <c r="M31" t="n">
-        <v>0.0151056984000606</v>
+      <c r="N31" t="n">
+        <v>0.0150830698459692</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="n">
-        <v>0.014215619752787</v>
+        <v>0.0131522265144604</v>
       </c>
       <c r="C32" t="n">
         <v>0.0142774703986615</v>
@@ -1826,21 +1922,24 @@
         <v>0.0105615806772351</v>
       </c>
       <c r="K32" t="n">
-        <v>0.00692383002911517</v>
+        <v>0.00692544852218671</v>
       </c>
       <c r="L32" t="n">
+        <v>0.00659980802813644</v>
+      </c>
+      <c r="M32" t="n">
         <v>0.0107311831378077</v>
       </c>
-      <c r="M32" t="n">
-        <v>0.0173392153017388</v>
+      <c r="N32" t="n">
+        <v>0.0173335331326275</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00984196444805791</v>
+        <v>0.00846591463569703</v>
       </c>
       <c r="C33" t="n">
         <v>0.00170643307526303</v>
@@ -1864,147 +1963,159 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.00610911967314572</v>
+        <v>0.00610911967314571</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0230247672029657</v>
+        <v>0.023028083262866</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
         <v>0.000594151579832889</v>
       </c>
-      <c r="M33" t="n">
-        <v>0.0147271908752953</v>
+      <c r="N33" t="n">
+        <v>0.0147104429398458</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" t="n">
-        <v>0.00643034269446746</v>
+        <v>0.00591581733191528</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00600020410742006</v>
+        <v>0.00823085631363607</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.00530150587701296</v>
       </c>
       <c r="E34" t="n">
-        <v>0.000677926360528358</v>
+        <v>0.00694790363283374</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00359826546203343</v>
+        <v>0.00608606534480209</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0080589784797137</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0365850782282709</v>
+        <v>0.0116057759866527</v>
       </c>
       <c r="I34" t="n">
-        <v>0.00281788726798534</v>
+        <v>0.0135064383392391</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.00103811944170327</v>
+        <v>0.00294485988767737</v>
       </c>
       <c r="L34" t="n">
-        <v>0.004</v>
+        <v>0.00495225565072051</v>
       </c>
       <c r="M34" t="n">
-        <v>0.00927044287460707</v>
+        <v>0.00404481052151245</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.00503061647772361</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00613006059214201</v>
+        <v>0.00591574646900186</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00680439715255722</v>
+        <v>0.00600020410742006</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00654616827389664</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.00156967228987841</v>
+        <v>0.000677926360528358</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00609289709118417</v>
+        <v>0.00359826546203343</v>
       </c>
       <c r="G35" t="n">
-        <v>0.00332761472791025</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0115081224402455</v>
+        <v>0.0365850782282709</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0138880687855009</v>
+        <v>0.00281788726798534</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.00149931274761018</v>
+        <v>0.00103083962503705</v>
       </c>
       <c r="L35" t="n">
-        <v>0.00935758608455479</v>
+        <v>0.00267611353854666</v>
       </c>
       <c r="M35" t="n">
-        <v>0.00690804147150927</v>
+        <v>0.004</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.00929489761544935</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00605285535577756</v>
+        <v>0.00542392910963062</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00823085631363607</v>
+        <v>0.00680439715255722</v>
       </c>
       <c r="D36" t="n">
-        <v>0.00530150587701296</v>
+        <v>0.00654616827389664</v>
       </c>
       <c r="E36" t="n">
-        <v>0.00694790363283374</v>
+        <v>0.00156967228987841</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00608606534480209</v>
+        <v>0.00609289709118417</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0080589784797137</v>
+        <v>0.00332761472791025</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0116057759866527</v>
+        <v>0.0115081224402455</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0135064383392391</v>
+        <v>0.0138880687855009</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.00294362394822069</v>
+        <v>0.00150258524682973</v>
       </c>
       <c r="L36" t="n">
-        <v>0.00404481052151245</v>
+        <v>0.00107884248523827</v>
       </c>
       <c r="M36" t="n">
-        <v>0.00497507144212201</v>
+        <v>0.00935758608455479</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.00690602776280236</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00498480491770562</v>
+        <v>0.00451586440476559</v>
       </c>
       <c r="C37" t="n">
         <v>0.00697615838359911</v>
@@ -2034,18 +2145,21 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0.00167154353708458</v>
+      </c>
+      <c r="M37" t="n">
         <v>0.000729109815961132</v>
       </c>
-      <c r="M37" t="n">
-        <v>0.00506110371716452</v>
+      <c r="N37" t="n">
+        <v>0.00504480059849849</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" t="n">
-        <v>0.00461962370143638</v>
+        <v>0.00412681550700585</v>
       </c>
       <c r="C38" t="n">
         <v>0.00148943718792206</v>
@@ -2066,232 +2180,250 @@
         <v>0.00268541619832375</v>
       </c>
       <c r="I38" t="n">
-        <v>0.00333046224135115</v>
+        <v>0.00333046224135116</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01098727714011</v>
+        <v>0.0109854184355183</v>
       </c>
       <c r="L38" t="n">
+        <v>0.00105956670132015</v>
+      </c>
+      <c r="M38" t="n">
         <v>0.0150914250182462</v>
       </c>
-      <c r="M38" t="n">
-        <v>0.00474641041989047</v>
+      <c r="N38" t="n">
+        <v>0.00476313556801642</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0042530914606426</v>
+        <v>0.00387505962518703</v>
       </c>
       <c r="C39" t="n">
-        <v>0.00572717566099924</v>
+        <v>0.00271692876163861</v>
       </c>
       <c r="D39" t="n">
-        <v>0.00121293940854523</v>
+        <v>0.00368191640352711</v>
       </c>
       <c r="E39" t="n">
-        <v>0.000970178192041325</v>
+        <v>0.00186433307282327</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0106147767098571</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0101039440490786</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0142345941481298</v>
+        <v>0.003756592000222</v>
       </c>
       <c r="I39" t="n">
-        <v>0.00379011295348649</v>
+        <v>0.0065232966636248</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.000478238829441451</v>
+        <v>0.00398543129260051</v>
       </c>
       <c r="L39" t="n">
-        <v>0.00453706469045391</v>
+        <v>0.00266481764825609</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0040396358726376</v>
+        <v>0.0167670399140729</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.00452902497016166</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00407681292982896</v>
+        <v>0.00376042823426941</v>
       </c>
       <c r="C40" t="n">
-        <v>0.00271692876163861</v>
+        <v>0.00572717566099924</v>
       </c>
       <c r="D40" t="n">
-        <v>0.00368191640352711</v>
+        <v>0.00121293940854523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00186433307282327</v>
+        <v>0.000970178192041325</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.0106147767098571</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.0101039440490786</v>
       </c>
       <c r="H40" t="n">
-        <v>0.003756592000222</v>
+        <v>0.0142345941481298</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0065232966636248</v>
+        <v>0.00379011295348649</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.00398701755731448</v>
+        <v>0.000479035863197519</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0167670399140729</v>
+        <v>0.000702518567778614</v>
       </c>
       <c r="M40" t="n">
-        <v>0.004542883272819</v>
+        <v>0.00453706469045391</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.00405306903935373</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00391071475984965</v>
+        <v>0.00374023783604245</v>
       </c>
       <c r="C41" t="n">
-        <v>0.00172000400595835</v>
+        <v>0.0035815087367448</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00128411497372626</v>
+        <v>0.00504243134717458</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00191273209787006</v>
+        <v>0.00318077166465574</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00139104642073402</v>
+        <v>0.00123224985714909</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.00411929849273951</v>
       </c>
       <c r="H41" t="n">
-        <v>0.00135402023656944</v>
+        <v>0.00156293205051617</v>
       </c>
       <c r="I41" t="n">
-        <v>0.00345002307779415</v>
+        <v>0.00644325535227306</v>
       </c>
       <c r="J41" t="n">
-        <v>0.00200025100065706</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>0.000495482708103956</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0338886203545232</v>
+        <v>0.00438722306975479</v>
       </c>
       <c r="M41" t="n">
-        <v>0.00530948810163774</v>
+        <v>0.0316251390872351</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.00246935953998757</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" t="n">
-        <v>0.00372238818910468</v>
+        <v>0.0034921423340029</v>
       </c>
       <c r="C42" t="n">
-        <v>0.00109789060643419</v>
+        <v>0.00172000400595835</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.00128411497372626</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.00191273209787006</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00402153613601914</v>
+        <v>0.00139104642073402</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.00190312563497747</v>
+        <v>0.00135402023656944</v>
       </c>
       <c r="I42" t="n">
-        <v>0.00110657894898139</v>
+        <v>0.00345002307779415</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.00200025100065706</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.000973860412151021</v>
       </c>
       <c r="M42" t="n">
-        <v>0.00852036196172564</v>
+        <v>0.0338886203545232</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.00528088269462518</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" t="n">
-        <v>0.00363587527462292</v>
+        <v>0.00319838758731251</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0035815087367448</v>
+        <v>0.00109789060643419</v>
       </c>
       <c r="D43" t="n">
-        <v>0.00504243134717458</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.00318077166465574</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00123224985714909</v>
+        <v>0.00402153613601914</v>
       </c>
       <c r="G43" t="n">
-        <v>0.00411929849273951</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.00156293205051617</v>
+        <v>0.00190312563497747</v>
       </c>
       <c r="I43" t="n">
-        <v>0.00644325535227306</v>
+        <v>0.00110657894898139</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.00049973192253344</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0316251390872351</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.00246541972553554</v>
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.00849193700932659</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" t="n">
-        <v>0.00304707592904965</v>
+        <v>0.00261729574086049</v>
       </c>
       <c r="C44" t="n">
         <v>0.00384092933767971</v>
@@ -2318,21 +2450,24 @@
         <v>0.00374629995761383</v>
       </c>
       <c r="K44" t="n">
-        <v>0.00152809743104175</v>
+        <v>0.00152604049474188</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>0.0198025191899563</v>
       </c>
-      <c r="M44" t="n">
-        <v>0.00126127494606263</v>
+      <c r="N44" t="n">
+        <v>0.00125901192887922</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0027948574007348</v>
+        <v>0.0025030153941417</v>
       </c>
       <c r="C45" t="n">
         <v>0.00388263819168326</v>
@@ -2362,18 +2497,21 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>0.000702518567778614</v>
+      </c>
+      <c r="M45" t="n">
         <v>0.0025680925142137</v>
       </c>
-      <c r="M45" t="n">
-        <v>0.00267956841697224</v>
+      <c r="N45" t="n">
+        <v>0.00268300668360871</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" t="n">
-        <v>0.00230410459126848</v>
+        <v>0.00209004282603918</v>
       </c>
       <c r="C46" t="n">
         <v>0.00268407995505448</v>
@@ -2400,21 +2538,24 @@
         <v>0.00192864878389146</v>
       </c>
       <c r="K46" t="n">
-        <v>0.00151116842265161</v>
+        <v>0.00151135560963524</v>
       </c>
       <c r="L46" t="n">
+        <v>0.000790194102954679</v>
+      </c>
+      <c r="M46" t="n">
         <v>0.00282091539140523</v>
       </c>
-      <c r="M46" t="n">
-        <v>0.00213858280226916</v>
+      <c r="N46" t="n">
+        <v>0.00213249352191096</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" t="n">
-        <v>0.00222406936027395</v>
+        <v>0.00202137494091519</v>
       </c>
       <c r="C47" t="n">
         <v>0.00239512401081583</v>
@@ -2441,21 +2582,24 @@
         <v>0.00192864878389146</v>
       </c>
       <c r="K47" t="n">
-        <v>0.00151116842265161</v>
+        <v>0.00151135560963524</v>
       </c>
       <c r="L47" t="n">
+        <v>0.000790194102954679</v>
+      </c>
+      <c r="M47" t="n">
         <v>0.00368061828039104</v>
       </c>
-      <c r="M47" t="n">
-        <v>0.00218226942468133</v>
+      <c r="N47" t="n">
+        <v>0.00217619431730513</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" t="n">
-        <v>0.00199965730083921</v>
+        <v>0.00181540386959629</v>
       </c>
       <c r="C48" t="n">
         <v>0.00048477276737779</v>
@@ -2482,12 +2626,15 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0118665209216205</v>
+        <v>0.0118657144845415</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>0.000702518567778614</v>
       </c>
       <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
         <v>0</v>
       </c>
     </row>

--- a/xlsx/country_comparison/field_keyword_positive.xlsx
+++ b/xlsx/country_comparison/field_keyword_positive.xlsx
@@ -575,7 +575,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.182321037798967</v>
+        <v>0.182430321710093</v>
       </c>
       <c r="C2" t="n">
         <v>0.161772357883732</v>
@@ -605,7 +605,7 @@
         <v>0.205749694909397</v>
       </c>
       <c r="L2" t="n">
-        <v>0.128357235867269</v>
+        <v>0.129138121059947</v>
       </c>
       <c r="M2" t="n">
         <v>0.160511571395735</v>
@@ -619,7 +619,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.100995060768002</v>
+        <v>0.101039707550088</v>
       </c>
       <c r="C3" t="n">
         <v>0.126903713743287</v>
@@ -649,13 +649,13 @@
         <v>0.0438097949544678</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0918208304430512</v>
+        <v>0.0921398528011717</v>
       </c>
       <c r="M3" t="n">
         <v>0.0481397016758384</v>
       </c>
       <c r="N3" t="n">
-        <v>0.102648655642718</v>
+        <v>0.102648655642717</v>
       </c>
     </row>
     <row r="4">
@@ -663,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.088154808321385</v>
+        <v>0.0882210761734028</v>
       </c>
       <c r="C4" t="n">
         <v>0.0907163404224399</v>
@@ -693,7 +693,7 @@
         <v>0.0838073240940032</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0608786217043796</v>
+        <v>0.0613521368252994</v>
       </c>
       <c r="M4" t="n">
         <v>0.0602178270789178</v>
@@ -707,7 +707,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0711807113712516</v>
+        <v>0.0712632397114504</v>
       </c>
       <c r="C5" t="n">
         <v>0.0651884757861758</v>
@@ -719,7 +719,7 @@
         <v>0.042692829320797</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0689439875428471</v>
+        <v>0.068943987542847</v>
       </c>
       <c r="G5" t="n">
         <v>0.0767926429993233</v>
@@ -737,7 +737,7 @@
         <v>0.0731479352716921</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0662071089146564</v>
+        <v>0.0667968129083522</v>
       </c>
       <c r="M5" t="n">
         <v>0.102037616300348</v>
@@ -751,13 +751,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.060736531600857</v>
+        <v>0.0607584240168585</v>
       </c>
       <c r="C6" t="n">
         <v>0.0942459172240121</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0676862447367624</v>
+        <v>0.0676862447367625</v>
       </c>
       <c r="E6" t="n">
         <v>0.110163507125438</v>
@@ -781,7 +781,7 @@
         <v>0.0375112362668072</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0330590623121272</v>
+        <v>0.0332154939708353</v>
       </c>
       <c r="M6" t="n">
         <v>0.0420394789499737</v>
@@ -795,7 +795,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0553504218200639</v>
+        <v>0.055412774324824</v>
       </c>
       <c r="C7" t="n">
         <v>0.0607223120240159</v>
@@ -825,7 +825,7 @@
         <v>0.0426050988618772</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0534989239387084</v>
+        <v>0.0539444620530744</v>
       </c>
       <c r="M7" t="n">
         <v>0.101771032271278</v>
@@ -839,7 +839,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0469900026163117</v>
+        <v>0.046815163770379</v>
       </c>
       <c r="C8" t="n">
         <v>0.0409974052476144</v>
@@ -854,13 +854,13 @@
         <v>0.029744754106229</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0663865396156052</v>
+        <v>0.0663865396156051</v>
       </c>
       <c r="H8" t="n">
         <v>0.0335897645052565</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0279930616552985</v>
+        <v>0.0279930616552986</v>
       </c>
       <c r="J8" t="n">
         <v>0.0247185603776682</v>
@@ -869,7 +869,7 @@
         <v>0.134585103893787</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0426251947414407</v>
+        <v>0.04137588855824</v>
       </c>
       <c r="M8" t="n">
         <v>0.0358156854121428</v>
@@ -883,7 +883,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0428925022529864</v>
+        <v>0.0429171462422951</v>
       </c>
       <c r="C9" t="n">
         <v>0.0387734005589055</v>
@@ -895,10 +895,10 @@
         <v>0.0437714005759224</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0626502583920119</v>
+        <v>0.0626502583920118</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0110333227815035</v>
+        <v>0.0110333227815034</v>
       </c>
       <c r="H9" t="n">
         <v>0.0514157193779358</v>
@@ -913,7 +913,7 @@
         <v>0.035094409747487</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0134987979493771</v>
+        <v>0.0136748908997614</v>
       </c>
       <c r="M9" t="n">
         <v>0.0199711849845625</v>
@@ -927,13 +927,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0403203062652297</v>
+        <v>0.0403210832786613</v>
       </c>
       <c r="C10" t="n">
         <v>0.0285615312623572</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0320049726035638</v>
+        <v>0.0320049726035639</v>
       </c>
       <c r="E10" t="n">
         <v>0.0241596296022602</v>
@@ -957,7 +957,7 @@
         <v>0.0385965646907139</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00223387876409278</v>
+        <v>0.00223943089227911</v>
       </c>
       <c r="M10" t="n">
         <v>0.000862233596311687</v>
@@ -971,7 +971,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0389960678335084</v>
+        <v>0.0390084048943894</v>
       </c>
       <c r="C11" t="n">
         <v>0.050449008233722</v>
@@ -995,13 +995,13 @@
         <v>0.0413631073311336</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0435924668129858</v>
+        <v>0.0435924668129857</v>
       </c>
       <c r="K11" t="n">
         <v>0.0304564891017079</v>
       </c>
       <c r="L11" t="n">
-        <v>0.017840134031664</v>
+        <v>0.0179282881621661</v>
       </c>
       <c r="M11" t="n">
         <v>0.0777988628197214</v>
@@ -1015,7 +1015,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0384638187662071</v>
+        <v>0.0384808913292799</v>
       </c>
       <c r="C12" t="n">
         <v>0.0364601289385647</v>
@@ -1045,7 +1045,7 @@
         <v>0.0234399934012472</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0107231605115973</v>
+        <v>0.0108451520432626</v>
       </c>
       <c r="M12" t="n">
         <v>0.00642657788541434</v>
@@ -1059,10 +1059,10 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0373562141560839</v>
+        <v>0.0373679582677434</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0603739511218419</v>
+        <v>0.060373951121842</v>
       </c>
       <c r="D13" t="n">
         <v>0.0538315457227264</v>
@@ -1089,7 +1089,7 @@
         <v>0.0312099154110523</v>
       </c>
       <c r="L13" t="n">
-        <v>0.021268099021952</v>
+        <v>0.021352016250038</v>
       </c>
       <c r="M13" t="n">
         <v>0.0303083114789396</v>
@@ -1103,7 +1103,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0336191355177953</v>
+        <v>0.0336204916297818</v>
       </c>
       <c r="C14" t="n">
         <v>0.0292223231542092</v>
@@ -1133,7 +1133,7 @@
         <v>0.103938267948727</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00138736039927219</v>
+        <v>0.00139705046031553</v>
       </c>
       <c r="M14" t="n">
         <v>0.00208813427186945</v>
@@ -1147,7 +1147,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0332160574775112</v>
+        <v>0.0330307542341729</v>
       </c>
       <c r="C15" t="n">
         <v>0.032541579467393</v>
@@ -1177,7 +1177,7 @@
         <v>0.0590920345710629</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0455635490148159</v>
+        <v>0.0442394697666676</v>
       </c>
       <c r="M15" t="n">
         <v>0.0039835499686648</v>
@@ -1191,10 +1191,10 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0319649704467399</v>
+        <v>0.0319653854911546</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0529305712288578</v>
+        <v>0.0529305712288579</v>
       </c>
       <c r="D16" t="n">
         <v>0.0357057845818555</v>
@@ -1215,13 +1215,13 @@
         <v>0.0874578351856686</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0521707440391609</v>
+        <v>0.0521707440391608</v>
       </c>
       <c r="K16" t="n">
         <v>0.00656675605998006</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00476136709085499</v>
+        <v>0.00476433277934832</v>
       </c>
       <c r="M16" t="n">
         <v>0.00199639412499814</v>
@@ -1235,7 +1235,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0304488376315802</v>
+        <v>0.0304347313692209</v>
       </c>
       <c r="C17" t="n">
         <v>0.0269735173134916</v>
@@ -1265,7 +1265,7 @@
         <v>0.0146534566511689</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0592517001731302</v>
+        <v>0.059150904261939</v>
       </c>
       <c r="M17" t="n">
         <v>0.0319695272437633</v>
@@ -1279,7 +1279,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0302795812721631</v>
+        <v>0.0302807029282993</v>
       </c>
       <c r="C18" t="n">
         <v>0.0281598134127114</v>
@@ -1309,7 +1309,7 @@
         <v>0.0217650060909604</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00586038734211524</v>
+        <v>0.00586840210530472</v>
       </c>
       <c r="M18" t="n">
         <v>0.0111451584411178</v>
@@ -1323,7 +1323,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029472401622532</v>
+        <v>0.0294706581204728</v>
       </c>
       <c r="C19" t="n">
         <v>0.0157395055510232</v>
@@ -1332,7 +1332,7 @@
         <v>0.0176020083086458</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0233644205389716</v>
+        <v>0.0233644205389715</v>
       </c>
       <c r="F19" t="n">
         <v>0.013900924047365</v>
@@ -1353,7 +1353,7 @@
         <v>0.026397328866856</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00140206063911074</v>
+        <v>0.00138960249291671</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0290290271298219</v>
+        <v>0.0290303742646181</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0437536500173379</v>
+        <v>0.043753650017338</v>
       </c>
       <c r="D20" t="n">
         <v>0.0235830505733939</v>
@@ -1397,7 +1397,7 @@
         <v>0.0141680897206946</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0016522224901023</v>
+        <v>0.00166184840487837</v>
       </c>
       <c r="M20" t="n">
         <v>0.0497244153114467</v>
@@ -1411,7 +1411,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0273840558766951</v>
+        <v>0.0273914867208431</v>
       </c>
       <c r="C21" t="n">
         <v>0.0185734738812219</v>
@@ -1441,10 +1441,10 @@
         <v>0.00855123830249976</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00643806063116806</v>
+        <v>0.0064911575244298</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0424901047589513</v>
+        <v>0.0424901047589512</v>
       </c>
       <c r="N21" t="n">
         <v>0.0524220495695358</v>
@@ -1455,7 +1455,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0250026785729991</v>
+        <v>0.0249560108773252</v>
       </c>
       <c r="C22" t="n">
         <v>0.0164008037905089</v>
@@ -1485,7 +1485,7 @@
         <v>0.0136235733102797</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0247002293614422</v>
+        <v>0.0243667666206532</v>
       </c>
       <c r="M22" t="n">
         <v>0.0280783049771635</v>
@@ -1499,7 +1499,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0247509642480483</v>
+        <v>0.0247534685263668</v>
       </c>
       <c r="C23" t="n">
         <v>0.0235491585698141</v>
@@ -1529,7 +1529,7 @@
         <v>0.0182662703177434</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00159299207370676</v>
+        <v>0.0016108863258171</v>
       </c>
       <c r="M23" t="n">
         <v>0.0270490585304728</v>
@@ -1543,7 +1543,7 @@
         <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.023372049780552</v>
+        <v>0.0233945741057845</v>
       </c>
       <c r="C24" t="n">
         <v>0.0259202101884547</v>
@@ -1567,13 +1567,13 @@
         <v>0.0274292760552015</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0307147387329946</v>
+        <v>0.0307147387329945</v>
       </c>
       <c r="K24" t="n">
         <v>0.0243760493776303</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0210962162032434</v>
+        <v>0.0212571631520474</v>
       </c>
       <c r="M24" t="n">
         <v>0.0373393099315168</v>
@@ -1587,7 +1587,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0223801820434425</v>
+        <v>0.0223854621456055</v>
       </c>
       <c r="C25" t="n">
         <v>0.0278669994830184</v>
@@ -1617,7 +1617,7 @@
         <v>0.00815618955253707</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0105472628002141</v>
+        <v>0.0105849916255501</v>
       </c>
       <c r="M25" t="n">
         <v>0.0125275022226377</v>
@@ -1634,7 +1634,7 @@
         <v>0.0219291560180485</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00961126540544619</v>
+        <v>0.0096112654054462</v>
       </c>
       <c r="D26" t="n">
         <v>0.0149985738479522</v>
@@ -1649,7 +1649,7 @@
         <v>0.00306882833325286</v>
       </c>
       <c r="H26" t="n">
-        <v>0.000876257471860367</v>
+        <v>0.000876257471860368</v>
       </c>
       <c r="I26" t="n">
         <v>0.0136748148581175</v>
@@ -1675,7 +1675,7 @@
         <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0195352836528638</v>
+        <v>0.0195379741803673</v>
       </c>
       <c r="C27" t="n">
         <v>0.025280925573597</v>
@@ -1705,7 +1705,7 @@
         <v>0.0244975839505814</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00553231492305329</v>
+        <v>0.00555154001361187</v>
       </c>
       <c r="M27" t="n">
         <v>0.00573833313680476</v>
@@ -1719,7 +1719,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0194397523322192</v>
+        <v>0.0194581482699632</v>
       </c>
       <c r="C28" t="n">
         <v>0.018120854570026</v>
@@ -1749,7 +1749,7 @@
         <v>0.00398912595078207</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0194287855799425</v>
+        <v>0.019560233249062</v>
       </c>
       <c r="M28" t="n">
         <v>0.0153588440444347</v>
@@ -1763,7 +1763,7 @@
         <v>41</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0168386015095953</v>
+        <v>0.0168603663301059</v>
       </c>
       <c r="C29" t="n">
         <v>0.0181665252346861</v>
@@ -1793,7 +1793,7 @@
         <v>0.0287752715441579</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0284386186217532</v>
+        <v>0.0285941385503773</v>
       </c>
       <c r="M29" t="n">
         <v>0.00672238644766084</v>
@@ -1807,7 +1807,7 @@
         <v>42</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01668336754879</v>
+        <v>0.0167017234755071</v>
       </c>
       <c r="C30" t="n">
         <v>0.015018025225827</v>
@@ -1837,7 +1837,7 @@
         <v>0.0245000892694067</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0159712827263236</v>
+        <v>0.0161024444977461</v>
       </c>
       <c r="M30" t="n">
         <v>0.0254216899328644</v>
@@ -1851,10 +1851,10 @@
         <v>43</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0151278512274999</v>
+        <v>0.01513813172755</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0138396679338058</v>
+        <v>0.0138396679338059</v>
       </c>
       <c r="D31" t="n">
         <v>0.0160626319186202</v>
@@ -1881,7 +1881,7 @@
         <v>0.0119806394668913</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0205229529063182</v>
+        <v>0.0205964119377506</v>
       </c>
       <c r="M31" t="n">
         <v>0.0202473052581676</v>
@@ -1895,7 +1895,7 @@
         <v>44</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0131522265144604</v>
+        <v>0.0131574127350707</v>
       </c>
       <c r="C32" t="n">
         <v>0.0142774703986615</v>
@@ -1904,7 +1904,7 @@
         <v>0.0176022119901733</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0158821644963116</v>
+        <v>0.0158821644963115</v>
       </c>
       <c r="F32" t="n">
         <v>0.020752159362504</v>
@@ -1925,7 +1925,7 @@
         <v>0.00692544852218671</v>
       </c>
       <c r="L32" t="n">
-        <v>0.00659980802813644</v>
+        <v>0.00663686602540977</v>
       </c>
       <c r="M32" t="n">
         <v>0.0107311831378077</v>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.00610911967314571</v>
+        <v>0.00610911967314572</v>
       </c>
       <c r="K33" t="n">
         <v>0.023028083262866</v>
@@ -1983,10 +1983,10 @@
         <v>46</v>
       </c>
       <c r="B34" t="n">
-        <v>0.00591581733191528</v>
+        <v>0.00592100651549222</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00823085631363607</v>
+        <v>0.00823085631363606</v>
       </c>
       <c r="D34" t="n">
         <v>0.00530150587701296</v>
@@ -2013,7 +2013,7 @@
         <v>0.00294485988767737</v>
       </c>
       <c r="L34" t="n">
-        <v>0.00495225565072051</v>
+        <v>0.00498933481979102</v>
       </c>
       <c r="M34" t="n">
         <v>0.00404481052151245</v>
@@ -2027,7 +2027,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00591574646900186</v>
+        <v>0.00591816822421375</v>
       </c>
       <c r="C35" t="n">
         <v>0.00600020410742006</v>
@@ -2057,7 +2057,7 @@
         <v>0.00103083962503705</v>
       </c>
       <c r="L35" t="n">
-        <v>0.00267611353854666</v>
+        <v>0.00269341812405955</v>
       </c>
       <c r="M35" t="n">
         <v>0.004</v>
@@ -2071,7 +2071,7 @@
         <v>48</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00542392910963062</v>
+        <v>0.00542653012413882</v>
       </c>
       <c r="C36" t="n">
         <v>0.00680439715255722</v>
@@ -2101,7 +2101,7 @@
         <v>0.00150258524682973</v>
       </c>
       <c r="L36" t="n">
-        <v>0.00107884248523827</v>
+        <v>0.0010974279631414</v>
       </c>
       <c r="M36" t="n">
         <v>0.00935758608455479</v>
@@ -2115,7 +2115,7 @@
         <v>49</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00451586440476559</v>
+        <v>0.00451762723508703</v>
       </c>
       <c r="C37" t="n">
         <v>0.00697615838359911</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.00167154353708458</v>
+        <v>0.00168413979284664</v>
       </c>
       <c r="M37" t="n">
         <v>0.000729109815961132</v>
@@ -2159,7 +2159,7 @@
         <v>50</v>
       </c>
       <c r="B38" t="n">
-        <v>0.00412681550700585</v>
+        <v>0.00412624473518087</v>
       </c>
       <c r="C38" t="n">
         <v>0.00148943718792206</v>
@@ -2189,7 +2189,7 @@
         <v>0.0109854184355183</v>
       </c>
       <c r="L38" t="n">
-        <v>0.00105956670132015</v>
+        <v>0.00105548826688333</v>
       </c>
       <c r="M38" t="n">
         <v>0.0150914250182462</v>
@@ -2203,7 +2203,7 @@
         <v>51</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00387505962518703</v>
+        <v>0.00387715387941051</v>
       </c>
       <c r="C39" t="n">
         <v>0.00271692876163861</v>
@@ -2233,7 +2233,7 @@
         <v>0.00398543129260051</v>
       </c>
       <c r="L39" t="n">
-        <v>0.00266481764825609</v>
+        <v>0.00267978208442947</v>
       </c>
       <c r="M39" t="n">
         <v>0.0167670399140729</v>
@@ -2247,7 +2247,7 @@
         <v>52</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00376042823426941</v>
+        <v>0.00376261623853323</v>
       </c>
       <c r="C40" t="n">
         <v>0.00572717566099924</v>
@@ -2277,7 +2277,7 @@
         <v>0.000479035863197519</v>
       </c>
       <c r="L40" t="n">
-        <v>0.000702518567778614</v>
+        <v>0.000718152892296543</v>
       </c>
       <c r="M40" t="n">
         <v>0.00453706469045391</v>
@@ -2291,7 +2291,7 @@
         <v>53</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00374023783604245</v>
+        <v>0.00374080264127663</v>
       </c>
       <c r="C41" t="n">
         <v>0.0035815087367448</v>
@@ -2321,7 +2321,7 @@
         <v>0.000495482708103956</v>
       </c>
       <c r="L41" t="n">
-        <v>0.00438722306975479</v>
+        <v>0.00439125887008054</v>
       </c>
       <c r="M41" t="n">
         <v>0.0316251390872351</v>
@@ -2335,7 +2335,7 @@
         <v>54</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0034921423340029</v>
+        <v>0.00349155282354273</v>
       </c>
       <c r="C42" t="n">
         <v>0.00172000400595835</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.000973860412151021</v>
+        <v>0.000969648081309871</v>
       </c>
       <c r="M42" t="n">
         <v>0.0338886203545232</v>
@@ -2467,7 +2467,7 @@
         <v>57</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0025030153941417</v>
+        <v>0.00250520339840552</v>
       </c>
       <c r="C45" t="n">
         <v>0.00388263819168326</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.000702518567778614</v>
+        <v>0.000718152892296543</v>
       </c>
       <c r="M45" t="n">
         <v>0.0025680925142137</v>
@@ -2511,7 +2511,7 @@
         <v>58</v>
       </c>
       <c r="B46" t="n">
-        <v>0.00209004282603918</v>
+        <v>0.00209057217917457</v>
       </c>
       <c r="C46" t="n">
         <v>0.00268407995505448</v>
@@ -2541,7 +2541,7 @@
         <v>0.00151135560963524</v>
       </c>
       <c r="L46" t="n">
-        <v>0.000790194102954679</v>
+        <v>0.000793976581279816</v>
       </c>
       <c r="M46" t="n">
         <v>0.00282091539140523</v>
@@ -2555,7 +2555,7 @@
         <v>59</v>
       </c>
       <c r="B47" t="n">
-        <v>0.00202137494091519</v>
+        <v>0.00202190429405058</v>
       </c>
       <c r="C47" t="n">
         <v>0.00239512401081583</v>
@@ -2585,7 +2585,7 @@
         <v>0.00151135560963524</v>
       </c>
       <c r="L47" t="n">
-        <v>0.000790194102954679</v>
+        <v>0.000793976581279816</v>
       </c>
       <c r="M47" t="n">
         <v>0.00368061828039104</v>
@@ -2599,7 +2599,7 @@
         <v>60</v>
       </c>
       <c r="B48" t="n">
-        <v>0.00181540386959629</v>
+        <v>0.0018175918738601</v>
       </c>
       <c r="C48" t="n">
         <v>0.00048477276737779</v>
@@ -2629,7 +2629,7 @@
         <v>0.0118657144845415</v>
       </c>
       <c r="L48" t="n">
-        <v>0.000702518567778614</v>
+        <v>0.000718152892296543</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
